--- a/data-raw/cpi_u_rs.xlsx
+++ b/data-raw/cpi_u_rs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Documents\RS2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Documents\RS2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8F765-4C68-405C-A83F-3D99460B9C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7944"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -266,6 +267,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -301,6 +319,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -476,11 +511,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2540,6 +2575,50 @@
         <v>381.2</v>
       </c>
     </row>
+    <row r="51" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B51" s="7">
+        <v>385.2</v>
+      </c>
+      <c r="C51" s="7">
+        <v>387.3</v>
+      </c>
+      <c r="D51" s="8">
+        <v>390</v>
+      </c>
+      <c r="E51" s="8">
+        <v>393.2</v>
+      </c>
+      <c r="F51" s="7">
+        <v>396.4</v>
+      </c>
+      <c r="G51" s="7">
+        <v>400</v>
+      </c>
+      <c r="H51" s="7">
+        <v>402</v>
+      </c>
+      <c r="I51" s="7">
+        <v>402.8</v>
+      </c>
+      <c r="J51" s="7">
+        <v>403.9</v>
+      </c>
+      <c r="K51" s="7">
+        <v>407.2</v>
+      </c>
+      <c r="L51" s="7">
+        <v>409.2</v>
+      </c>
+      <c r="M51" s="7">
+        <v>410.5</v>
+      </c>
+      <c r="N51" s="7">
+        <v>399</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:XFD3"/>

--- a/data-raw/cpi_u_rs.xlsx
+++ b/data-raw/cpi_u_rs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Documents\RS2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czippel\Documents\GitHub\Rcbpp\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8F765-4C68-405C-A83F-3D99460B9C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9FCF549-0269-4975-A5DF-3CCDD18A3AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -110,6 +110,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -131,47 +138,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -192,9 +202,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,9 +242,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,26 +277,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,26 +312,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -512,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -526,69 +502,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-    </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -668,10 +644,10 @@
       <c r="C8" s="7">
         <v>101.1</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>101.8</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>102.7</v>
       </c>
       <c r="F8" s="7">
@@ -713,10 +689,10 @@
       <c r="C9" s="7">
         <v>109.7</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>110.7</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>111.8</v>
       </c>
       <c r="F9" s="7">
@@ -758,10 +734,10 @@
       <c r="C10" s="7">
         <v>122.4</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>123.8</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>124.7</v>
       </c>
       <c r="F10" s="7">
@@ -803,10 +779,10 @@
       <c r="C11" s="7">
         <v>135.19999999999999</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>136.30000000000001</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>137.1</v>
       </c>
       <c r="F11" s="7">
@@ -848,10 +824,10 @@
       <c r="C12" s="7">
         <v>144.69999999999999</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>144.9</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>145</v>
       </c>
       <c r="F12" s="7">
@@ -893,10 +869,10 @@
       <c r="C13" s="7">
         <v>151.1</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>151.19999999999999</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>152.4</v>
       </c>
       <c r="F13" s="7">
@@ -918,10 +894,10 @@
         <v>156</v>
       </c>
       <c r="L13" s="7">
-        <v>156.19999999999999</v>
+        <v>156.1</v>
       </c>
       <c r="M13" s="7">
-        <v>156.4</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="N13" s="7">
         <v>153.80000000000001</v>
@@ -938,20 +914,20 @@
       <c r="C14" s="7">
         <v>158</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>158.30000000000001</v>
       </c>
-      <c r="E14" s="8">
-        <v>159.1</v>
+      <c r="E14" s="7">
+        <v>159</v>
       </c>
       <c r="F14" s="7">
         <v>159.5</v>
       </c>
       <c r="G14" s="7">
-        <v>160</v>
+        <v>159.9</v>
       </c>
       <c r="H14" s="7">
-        <v>160.5</v>
+        <v>160.4</v>
       </c>
       <c r="I14" s="7">
         <v>161.1</v>
@@ -966,7 +942,7 @@
         <v>162.19999999999999</v>
       </c>
       <c r="M14" s="7">
-        <v>162.4</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="N14" s="7">
         <v>160.19999999999999</v>
@@ -978,43 +954,43 @@
         <v>1985</v>
       </c>
       <c r="B15" s="7">
-        <v>162.6</v>
+        <v>162.5</v>
       </c>
       <c r="C15" s="7">
         <v>163.19999999999999</v>
       </c>
-      <c r="D15" s="8">
-        <v>164</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="D15" s="7">
+        <v>163.9</v>
+      </c>
+      <c r="E15" s="7">
         <v>164.6</v>
       </c>
       <c r="F15" s="7">
-        <v>165.3</v>
+        <v>165.2</v>
       </c>
       <c r="G15" s="7">
-        <v>165.7</v>
+        <v>165.6</v>
       </c>
       <c r="H15" s="7">
-        <v>166</v>
+        <v>165.9</v>
       </c>
       <c r="I15" s="7">
-        <v>166.4</v>
+        <v>166.2</v>
       </c>
       <c r="J15" s="7">
-        <v>166.9</v>
+        <v>166.8</v>
       </c>
       <c r="K15" s="7">
-        <v>167.3</v>
+        <v>167.2</v>
       </c>
       <c r="L15" s="7">
-        <v>167.9</v>
+        <v>167.7</v>
       </c>
       <c r="M15" s="7">
-        <v>168.2</v>
+        <v>168.1</v>
       </c>
       <c r="N15" s="7">
-        <v>165.7</v>
+        <v>165.6</v>
       </c>
       <c r="O15" s="4"/>
     </row>
@@ -1023,43 +999,43 @@
         <v>1986</v>
       </c>
       <c r="B16" s="7">
-        <v>168.7</v>
+        <v>168.6</v>
       </c>
       <c r="C16" s="7">
-        <v>168.3</v>
-      </c>
-      <c r="D16" s="8">
-        <v>167.5</v>
-      </c>
-      <c r="E16" s="8">
-        <v>167.1</v>
+        <v>168.1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>167.3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>166.9</v>
       </c>
       <c r="F16" s="7">
-        <v>167.6</v>
+        <v>167.4</v>
       </c>
       <c r="G16" s="7">
+        <v>168.2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>168.2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>168.5</v>
+      </c>
+      <c r="J16" s="7">
+        <v>169.4</v>
+      </c>
+      <c r="K16" s="7">
+        <v>169.5</v>
+      </c>
+      <c r="L16" s="7">
+        <v>169.5</v>
+      </c>
+      <c r="M16" s="7">
+        <v>169.6</v>
+      </c>
+      <c r="N16" s="7">
         <v>168.4</v>
-      </c>
-      <c r="H16" s="7">
-        <v>168.4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>168.7</v>
-      </c>
-      <c r="J16" s="7">
-        <v>169.6</v>
-      </c>
-      <c r="K16" s="7">
-        <v>169.7</v>
-      </c>
-      <c r="L16" s="7">
-        <v>169.7</v>
-      </c>
-      <c r="M16" s="7">
-        <v>169.9</v>
-      </c>
-      <c r="N16" s="7">
-        <v>168.6</v>
       </c>
       <c r="O16" s="4"/>
     </row>
@@ -1068,43 +1044,43 @@
         <v>1987</v>
       </c>
       <c r="B17" s="7">
-        <v>170.9</v>
+        <v>170.6</v>
       </c>
       <c r="C17" s="7">
-        <v>171.5</v>
-      </c>
-      <c r="D17" s="8">
-        <v>172.3</v>
-      </c>
-      <c r="E17" s="8">
-        <v>173.1</v>
+        <v>171.3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>172</v>
+      </c>
+      <c r="E17" s="7">
+        <v>172.9</v>
       </c>
       <c r="F17" s="7">
-        <v>173.6</v>
+        <v>173.4</v>
       </c>
       <c r="G17" s="7">
+        <v>174</v>
+      </c>
+      <c r="H17" s="7">
         <v>174.3</v>
       </c>
-      <c r="H17" s="7">
-        <v>174.6</v>
-      </c>
       <c r="I17" s="7">
-        <v>175.5</v>
+        <v>175.3</v>
       </c>
       <c r="J17" s="7">
-        <v>176.4</v>
+        <v>176.1</v>
       </c>
       <c r="K17" s="7">
-        <v>176.7</v>
+        <v>176.5</v>
       </c>
       <c r="L17" s="7">
-        <v>176.9</v>
+        <v>176.6</v>
       </c>
       <c r="M17" s="7">
-        <v>176.7</v>
+        <v>176.5</v>
       </c>
       <c r="N17" s="7">
-        <v>174.4</v>
+        <v>174.1</v>
       </c>
       <c r="O17" s="4"/>
     </row>
@@ -1113,43 +1089,43 @@
         <v>1988</v>
       </c>
       <c r="B18" s="7">
-        <v>177.2</v>
+        <v>177</v>
       </c>
       <c r="C18" s="7">
-        <v>177.5</v>
-      </c>
-      <c r="D18" s="8">
-        <v>178.3</v>
-      </c>
-      <c r="E18" s="8">
-        <v>179.1</v>
+        <v>177.3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>178</v>
+      </c>
+      <c r="E18" s="7">
+        <v>178.9</v>
       </c>
       <c r="F18" s="7">
-        <v>179.7</v>
+        <v>179.5</v>
       </c>
       <c r="G18" s="7">
-        <v>180.4</v>
+        <v>180.1</v>
       </c>
       <c r="H18" s="7">
-        <v>181.1</v>
+        <v>180.8</v>
       </c>
       <c r="I18" s="7">
-        <v>181.8</v>
+        <v>181.6</v>
       </c>
       <c r="J18" s="7">
-        <v>183</v>
+        <v>182.7</v>
       </c>
       <c r="K18" s="7">
+        <v>183.2</v>
+      </c>
+      <c r="L18" s="7">
+        <v>183.3</v>
+      </c>
+      <c r="M18" s="7">
         <v>183.4</v>
       </c>
-      <c r="L18" s="7">
-        <v>183.6</v>
-      </c>
-      <c r="M18" s="7">
-        <v>183.7</v>
-      </c>
       <c r="N18" s="7">
-        <v>180.7</v>
+        <v>180.5</v>
       </c>
       <c r="O18" s="4"/>
     </row>
@@ -1158,43 +1134,43 @@
         <v>1989</v>
       </c>
       <c r="B19" s="7">
-        <v>184.5</v>
+        <v>184.3</v>
       </c>
       <c r="C19" s="7">
-        <v>185.2</v>
-      </c>
-      <c r="D19" s="8">
-        <v>186.2</v>
-      </c>
-      <c r="E19" s="8">
-        <v>187.4</v>
+        <v>184.9</v>
+      </c>
+      <c r="D19" s="7">
+        <v>185.9</v>
+      </c>
+      <c r="E19" s="7">
+        <v>187.2</v>
       </c>
       <c r="F19" s="7">
-        <v>188.4</v>
+        <v>188.1</v>
       </c>
       <c r="G19" s="7">
-        <v>188.8</v>
+        <v>188.5</v>
       </c>
       <c r="H19" s="7">
-        <v>189.3</v>
+        <v>189</v>
       </c>
       <c r="I19" s="7">
-        <v>189.4</v>
+        <v>189.2</v>
       </c>
       <c r="J19" s="7">
-        <v>190.1</v>
+        <v>189.8</v>
       </c>
       <c r="K19" s="7">
+        <v>190.6</v>
+      </c>
+      <c r="L19" s="7">
         <v>190.9</v>
       </c>
-      <c r="L19" s="7">
-        <v>191.2</v>
-      </c>
       <c r="M19" s="7">
-        <v>191.4</v>
+        <v>191.1</v>
       </c>
       <c r="N19" s="7">
-        <v>188.6</v>
+        <v>188.3</v>
       </c>
       <c r="O19" s="4"/>
     </row>
@@ -1203,43 +1179,43 @@
         <v>1990</v>
       </c>
       <c r="B20" s="7">
-        <v>193.3</v>
+        <v>193</v>
       </c>
       <c r="C20" s="7">
-        <v>194.1</v>
-      </c>
-      <c r="D20" s="8">
+        <v>193.9</v>
+      </c>
+      <c r="D20" s="7">
+        <v>194.9</v>
+      </c>
+      <c r="E20" s="7">
         <v>195.2</v>
       </c>
-      <c r="E20" s="8">
+      <c r="F20" s="7">
         <v>195.5</v>
       </c>
-      <c r="F20" s="7">
-        <v>195.8</v>
-      </c>
       <c r="G20" s="7">
-        <v>196.8</v>
+        <v>196.5</v>
       </c>
       <c r="H20" s="7">
+        <v>197.3</v>
+      </c>
+      <c r="I20" s="7">
+        <v>199</v>
+      </c>
+      <c r="J20" s="7">
+        <v>200.6</v>
+      </c>
+      <c r="K20" s="7">
+        <v>201.7</v>
+      </c>
+      <c r="L20" s="7">
+        <v>202</v>
+      </c>
+      <c r="M20" s="7">
+        <v>202</v>
+      </c>
+      <c r="N20" s="7">
         <v>197.6</v>
-      </c>
-      <c r="I20" s="7">
-        <v>199.3</v>
-      </c>
-      <c r="J20" s="7">
-        <v>200.9</v>
-      </c>
-      <c r="K20" s="7">
-        <v>202</v>
-      </c>
-      <c r="L20" s="7">
-        <v>202.3</v>
-      </c>
-      <c r="M20" s="7">
-        <v>202.3</v>
-      </c>
-      <c r="N20" s="7">
-        <v>197.9</v>
       </c>
       <c r="O20" s="4"/>
     </row>
@@ -1248,43 +1224,43 @@
         <v>1991</v>
       </c>
       <c r="B21" s="7">
-        <v>203.2</v>
+        <v>202.9</v>
       </c>
       <c r="C21" s="7">
-        <v>203.4</v>
-      </c>
-      <c r="D21" s="8">
-        <v>203.6</v>
-      </c>
-      <c r="E21" s="8">
-        <v>203.8</v>
+        <v>203.1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>203.3</v>
+      </c>
+      <c r="E21" s="7">
+        <v>203.5</v>
       </c>
       <c r="F21" s="7">
-        <v>204.4</v>
+        <v>204.1</v>
       </c>
       <c r="G21" s="7">
+        <v>204.5</v>
+      </c>
+      <c r="H21" s="7">
+        <v>204.7</v>
+      </c>
+      <c r="I21" s="7">
+        <v>205.2</v>
+      </c>
+      <c r="J21" s="7">
+        <v>206.1</v>
+      </c>
+      <c r="K21" s="7">
+        <v>206.2</v>
+      </c>
+      <c r="L21" s="7">
+        <v>206.7</v>
+      </c>
+      <c r="M21" s="7">
+        <v>206.8</v>
+      </c>
+      <c r="N21" s="7">
         <v>204.8</v>
-      </c>
-      <c r="H21" s="7">
-        <v>205</v>
-      </c>
-      <c r="I21" s="7">
-        <v>205.5</v>
-      </c>
-      <c r="J21" s="7">
-        <v>206.4</v>
-      </c>
-      <c r="K21" s="7">
-        <v>206.5</v>
-      </c>
-      <c r="L21" s="7">
-        <v>207</v>
-      </c>
-      <c r="M21" s="7">
-        <v>207.1</v>
-      </c>
-      <c r="N21" s="7">
-        <v>205.1</v>
       </c>
       <c r="O21" s="4"/>
     </row>
@@ -1293,43 +1269,43 @@
         <v>1992</v>
       </c>
       <c r="B22" s="7">
-        <v>207.5</v>
+        <v>207.2</v>
       </c>
       <c r="C22" s="7">
-        <v>208.1</v>
-      </c>
-      <c r="D22" s="8">
-        <v>208.9</v>
-      </c>
-      <c r="E22" s="8">
+        <v>207.7</v>
+      </c>
+      <c r="D22" s="7">
+        <v>208.6</v>
+      </c>
+      <c r="E22" s="7">
+        <v>209</v>
+      </c>
+      <c r="F22" s="7">
         <v>209.3</v>
       </c>
-      <c r="F22" s="7">
-        <v>209.6</v>
-      </c>
       <c r="G22" s="7">
+        <v>209.7</v>
+      </c>
+      <c r="H22" s="7">
         <v>210.1</v>
       </c>
-      <c r="H22" s="7">
-        <v>210.4</v>
-      </c>
       <c r="I22" s="7">
-        <v>210.9</v>
+        <v>210.6</v>
       </c>
       <c r="J22" s="7">
-        <v>211.5</v>
+        <v>211.2</v>
       </c>
       <c r="K22" s="7">
+        <v>211.8</v>
+      </c>
+      <c r="L22" s="7">
         <v>212.1</v>
       </c>
-      <c r="L22" s="7">
-        <v>212.4</v>
-      </c>
       <c r="M22" s="7">
-        <v>212.3</v>
+        <v>211.9</v>
       </c>
       <c r="N22" s="7">
-        <v>210.2</v>
+        <v>209.9</v>
       </c>
       <c r="O22" s="4"/>
     </row>
@@ -1338,43 +1314,43 @@
         <v>1993</v>
       </c>
       <c r="B23" s="7">
-        <v>212.9</v>
+        <v>212.6</v>
       </c>
       <c r="C23" s="7">
-        <v>213.6</v>
-      </c>
-      <c r="D23" s="8">
-        <v>214.3</v>
-      </c>
-      <c r="E23" s="8">
-        <v>214.9</v>
+        <v>213.3</v>
+      </c>
+      <c r="D23" s="7">
+        <v>214</v>
+      </c>
+      <c r="E23" s="7">
+        <v>214.5</v>
       </c>
       <c r="F23" s="7">
+        <v>215</v>
+      </c>
+      <c r="G23" s="7">
+        <v>215.2</v>
+      </c>
+      <c r="H23" s="7">
         <v>215.3</v>
       </c>
-      <c r="G23" s="7">
-        <v>215.5</v>
-      </c>
-      <c r="H23" s="7">
-        <v>215.6</v>
-      </c>
       <c r="I23" s="7">
-        <v>216.1</v>
+        <v>215.7</v>
       </c>
       <c r="J23" s="7">
-        <v>216.3</v>
+        <v>216</v>
       </c>
       <c r="K23" s="7">
-        <v>217.1</v>
+        <v>216.7</v>
       </c>
       <c r="L23" s="7">
-        <v>217.2</v>
+        <v>216.9</v>
       </c>
       <c r="M23" s="7">
-        <v>217</v>
+        <v>216.7</v>
       </c>
       <c r="N23" s="7">
-        <v>215.5</v>
+        <v>215.2</v>
       </c>
       <c r="O23" s="4"/>
     </row>
@@ -1383,43 +1359,43 @@
         <v>1994</v>
       </c>
       <c r="B24" s="7">
-        <v>217.4</v>
+        <v>217.1</v>
       </c>
       <c r="C24" s="7">
-        <v>218</v>
-      </c>
-      <c r="D24" s="8">
-        <v>218.7</v>
-      </c>
-      <c r="E24" s="8">
-        <v>219</v>
+        <v>217.6</v>
+      </c>
+      <c r="D24" s="7">
+        <v>218.4</v>
+      </c>
+      <c r="E24" s="7">
+        <v>218.6</v>
       </c>
       <c r="F24" s="7">
-        <v>219.2</v>
+        <v>218.9</v>
       </c>
       <c r="G24" s="7">
-        <v>219.8</v>
+        <v>219.5</v>
       </c>
       <c r="H24" s="7">
-        <v>220.3</v>
+        <v>220</v>
       </c>
       <c r="I24" s="7">
+        <v>220.7</v>
+      </c>
+      <c r="J24" s="7">
         <v>221.1</v>
       </c>
-      <c r="J24" s="7">
+      <c r="K24" s="7">
+        <v>221.2</v>
+      </c>
+      <c r="L24" s="7">
+        <v>221.5</v>
+      </c>
+      <c r="M24" s="7">
         <v>221.4</v>
       </c>
-      <c r="K24" s="7">
-        <v>221.6</v>
-      </c>
-      <c r="L24" s="7">
-        <v>221.8</v>
-      </c>
-      <c r="M24" s="7">
-        <v>221.7</v>
-      </c>
       <c r="N24" s="7">
-        <v>220</v>
+        <v>219.7</v>
       </c>
       <c r="O24" s="4"/>
     </row>
@@ -1428,43 +1404,43 @@
         <v>1995</v>
       </c>
       <c r="B25" s="7">
-        <v>222.5</v>
+        <v>222.2</v>
       </c>
       <c r="C25" s="7">
-        <v>223.2</v>
-      </c>
-      <c r="D25" s="8">
-        <v>223.9</v>
-      </c>
-      <c r="E25" s="8">
-        <v>224.6</v>
+        <v>222.9</v>
+      </c>
+      <c r="D25" s="7">
+        <v>223.6</v>
+      </c>
+      <c r="E25" s="7">
+        <v>224.3</v>
       </c>
       <c r="F25" s="7">
+        <v>224.7</v>
+      </c>
+      <c r="G25" s="7">
+        <v>225.2</v>
+      </c>
+      <c r="H25" s="7">
+        <v>225.3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>225.7</v>
+      </c>
+      <c r="J25" s="7">
+        <v>226.1</v>
+      </c>
+      <c r="K25" s="7">
+        <v>226.7</v>
+      </c>
+      <c r="L25" s="7">
+        <v>226.5</v>
+      </c>
+      <c r="M25" s="7">
+        <v>226.4</v>
+      </c>
+      <c r="N25" s="7">
         <v>225</v>
-      </c>
-      <c r="G25" s="7">
-        <v>225.5</v>
-      </c>
-      <c r="H25" s="7">
-        <v>225.6</v>
-      </c>
-      <c r="I25" s="7">
-        <v>226</v>
-      </c>
-      <c r="J25" s="7">
-        <v>226.5</v>
-      </c>
-      <c r="K25" s="7">
-        <v>227</v>
-      </c>
-      <c r="L25" s="7">
-        <v>226.9</v>
-      </c>
-      <c r="M25" s="7">
-        <v>226.7</v>
-      </c>
-      <c r="N25" s="7">
-        <v>225.3</v>
       </c>
       <c r="O25" s="4"/>
     </row>
@@ -1473,43 +1449,43 @@
         <v>1996</v>
       </c>
       <c r="B26" s="7">
-        <v>227.8</v>
+        <v>227.5</v>
       </c>
       <c r="C26" s="7">
-        <v>228.6</v>
-      </c>
-      <c r="D26" s="8">
-        <v>229.8</v>
-      </c>
-      <c r="E26" s="8">
-        <v>230.6</v>
+        <v>228.3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>229.4</v>
+      </c>
+      <c r="E26" s="7">
+        <v>230.2</v>
       </c>
       <c r="F26" s="7">
-        <v>231.1</v>
+        <v>230.8</v>
       </c>
       <c r="G26" s="7">
+        <v>230.9</v>
+      </c>
+      <c r="H26" s="7">
         <v>231.3</v>
       </c>
-      <c r="H26" s="7">
-        <v>231.6</v>
-      </c>
       <c r="I26" s="7">
-        <v>231.9</v>
+        <v>231.5</v>
       </c>
       <c r="J26" s="7">
-        <v>232.7</v>
+        <v>232.3</v>
       </c>
       <c r="K26" s="7">
-        <v>233.3</v>
+        <v>233</v>
       </c>
       <c r="L26" s="7">
-        <v>233.7</v>
+        <v>233.4</v>
       </c>
       <c r="M26" s="7">
-        <v>233.7</v>
+        <v>233.4</v>
       </c>
       <c r="N26" s="7">
-        <v>231.3</v>
+        <v>231</v>
       </c>
       <c r="O26" s="4"/>
     </row>
@@ -1518,43 +1494,43 @@
         <v>1997</v>
       </c>
       <c r="B27" s="7">
-        <v>234.4</v>
+        <v>234.1</v>
       </c>
       <c r="C27" s="7">
-        <v>235.1</v>
-      </c>
-      <c r="D27" s="8">
-        <v>235.6</v>
-      </c>
-      <c r="E27" s="8">
+        <v>234.7</v>
+      </c>
+      <c r="D27" s="7">
+        <v>235.2</v>
+      </c>
+      <c r="E27" s="7">
+        <v>235.5</v>
+      </c>
+      <c r="F27" s="7">
+        <v>235.4</v>
+      </c>
+      <c r="G27" s="7">
         <v>235.8</v>
       </c>
-      <c r="F27" s="7">
-        <v>235.8</v>
-      </c>
-      <c r="G27" s="7">
-        <v>236.1</v>
-      </c>
       <c r="H27" s="7">
-        <v>236.2</v>
+        <v>235.9</v>
       </c>
       <c r="I27" s="7">
-        <v>236.7</v>
+        <v>236.3</v>
       </c>
       <c r="J27" s="7">
+        <v>237.1</v>
+      </c>
+      <c r="K27" s="7">
+        <v>237.5</v>
+      </c>
+      <c r="L27" s="7">
         <v>237.4</v>
       </c>
-      <c r="K27" s="7">
-        <v>237.8</v>
-      </c>
-      <c r="L27" s="7">
-        <v>237.8</v>
-      </c>
       <c r="M27" s="7">
-        <v>237.3</v>
+        <v>237</v>
       </c>
       <c r="N27" s="7">
-        <v>236.3</v>
+        <v>236</v>
       </c>
       <c r="O27" s="4"/>
     </row>
@@ -1563,43 +1539,43 @@
         <v>1998</v>
       </c>
       <c r="B28" s="7">
+        <v>237.4</v>
+      </c>
+      <c r="C28" s="7">
         <v>237.8</v>
       </c>
-      <c r="C28" s="7">
+      <c r="D28" s="7">
         <v>238.1</v>
       </c>
-      <c r="D28" s="8">
-        <v>238.5</v>
-      </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
+        <v>238.6</v>
+      </c>
+      <c r="F28" s="7">
         <v>239</v>
       </c>
-      <c r="F28" s="7">
-        <v>239.3</v>
-      </c>
       <c r="G28" s="7">
-        <v>239.5</v>
+        <v>239.1</v>
       </c>
       <c r="H28" s="7">
+        <v>239.4</v>
+      </c>
+      <c r="I28" s="7">
         <v>239.7</v>
       </c>
-      <c r="I28" s="7">
-        <v>240.1</v>
-      </c>
       <c r="J28" s="7">
-        <v>240.4</v>
+        <v>240</v>
       </c>
       <c r="K28" s="7">
-        <v>240.9</v>
+        <v>240.5</v>
       </c>
       <c r="L28" s="7">
-        <v>240.8</v>
+        <v>240.5</v>
       </c>
       <c r="M28" s="7">
-        <v>240.6</v>
+        <v>240.3</v>
       </c>
       <c r="N28" s="7">
-        <v>239.5</v>
+        <v>239.2</v>
       </c>
       <c r="O28" s="4"/>
     </row>
@@ -1608,43 +1584,43 @@
         <v>1999</v>
       </c>
       <c r="B29" s="7">
-        <v>241.3</v>
+        <v>240.9</v>
       </c>
       <c r="C29" s="7">
-        <v>241.6</v>
-      </c>
-      <c r="D29" s="8">
-        <v>242.3</v>
-      </c>
-      <c r="E29" s="8">
-        <v>244</v>
+        <v>241.2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>241.9</v>
+      </c>
+      <c r="E29" s="7">
+        <v>243.6</v>
       </c>
       <c r="F29" s="7">
-        <v>244</v>
+        <v>243.6</v>
       </c>
       <c r="G29" s="7">
-        <v>244.1</v>
+        <v>243.7</v>
       </c>
       <c r="H29" s="7">
-        <v>244.7</v>
+        <v>244.4</v>
       </c>
       <c r="I29" s="7">
-        <v>245.4</v>
+        <v>245.1</v>
       </c>
       <c r="J29" s="7">
-        <v>246.5</v>
+        <v>246.2</v>
       </c>
       <c r="K29" s="7">
-        <v>247.1</v>
+        <v>246.7</v>
       </c>
       <c r="L29" s="7">
-        <v>247.2</v>
+        <v>246.8</v>
       </c>
       <c r="M29" s="7">
-        <v>247.2</v>
+        <v>246.8</v>
       </c>
       <c r="N29" s="7">
-        <v>244.6</v>
+        <v>244.2</v>
       </c>
       <c r="O29" s="4"/>
     </row>
@@ -1653,43 +1629,43 @@
         <v>2000</v>
       </c>
       <c r="B30" s="7">
-        <v>248</v>
+        <v>247.6</v>
       </c>
       <c r="C30" s="7">
-        <v>249.4</v>
-      </c>
-      <c r="D30" s="8">
+        <v>249.1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>251.1</v>
+      </c>
+      <c r="E30" s="7">
+        <v>251.2</v>
+      </c>
+      <c r="F30" s="7">
         <v>251.4</v>
       </c>
-      <c r="E30" s="8">
-        <v>251.6</v>
-      </c>
-      <c r="F30" s="7">
-        <v>251.8</v>
-      </c>
       <c r="G30" s="7">
-        <v>253.2</v>
+        <v>252.9</v>
       </c>
       <c r="H30" s="7">
-        <v>253.7</v>
+        <v>253.4</v>
       </c>
       <c r="I30" s="7">
-        <v>253.8</v>
+        <v>253.4</v>
       </c>
       <c r="J30" s="7">
+        <v>254.8</v>
+      </c>
+      <c r="K30" s="7">
         <v>255.1</v>
       </c>
-      <c r="K30" s="7">
-        <v>255.5</v>
-      </c>
       <c r="L30" s="7">
-        <v>255.7</v>
+        <v>255.3</v>
       </c>
       <c r="M30" s="7">
-        <v>255.5</v>
+        <v>255.1</v>
       </c>
       <c r="N30" s="7">
-        <v>252.9</v>
+        <v>252.5</v>
       </c>
       <c r="O30" s="4"/>
     </row>
@@ -1698,43 +1674,43 @@
         <v>2001</v>
       </c>
       <c r="B31" s="7">
-        <v>257.2</v>
+        <v>256.8</v>
       </c>
       <c r="C31" s="7">
-        <v>258.2</v>
-      </c>
-      <c r="D31" s="8">
-        <v>258.89999999999998</v>
-      </c>
-      <c r="E31" s="8">
-        <v>259.8</v>
+        <v>257.89999999999998</v>
+      </c>
+      <c r="D31" s="7">
+        <v>258.5</v>
+      </c>
+      <c r="E31" s="7">
+        <v>259.5</v>
       </c>
       <c r="F31" s="7">
-        <v>260.89999999999998</v>
+        <v>260.5</v>
       </c>
       <c r="G31" s="7">
-        <v>261.5</v>
+        <v>261.10000000000002</v>
       </c>
       <c r="H31" s="7">
-        <v>260.7</v>
+        <v>260.3</v>
       </c>
       <c r="I31" s="7">
-        <v>260.8</v>
+        <v>260.39999999999998</v>
       </c>
       <c r="J31" s="7">
-        <v>261.8</v>
+        <v>261.39999999999998</v>
       </c>
       <c r="K31" s="7">
-        <v>261</v>
+        <v>260.60000000000002</v>
       </c>
       <c r="L31" s="7">
-        <v>260.5</v>
+        <v>260.10000000000002</v>
       </c>
       <c r="M31" s="7">
-        <v>259.5</v>
+        <v>259.10000000000002</v>
       </c>
       <c r="N31" s="7">
-        <v>260.10000000000002</v>
+        <v>259.7</v>
       </c>
       <c r="O31" s="4"/>
     </row>
@@ -1743,43 +1719,43 @@
         <v>2002</v>
       </c>
       <c r="B32" s="7">
-        <v>260.2</v>
+        <v>259.8</v>
       </c>
       <c r="C32" s="7">
-        <v>261.2</v>
-      </c>
-      <c r="D32" s="8">
-        <v>262.60000000000002</v>
-      </c>
-      <c r="E32" s="8">
+        <v>260.8</v>
+      </c>
+      <c r="D32" s="7">
+        <v>262.2</v>
+      </c>
+      <c r="E32" s="7">
+        <v>263.7</v>
+      </c>
+      <c r="F32" s="7">
+        <v>263.60000000000002</v>
+      </c>
+      <c r="G32" s="7">
+        <v>263.89999999999998</v>
+      </c>
+      <c r="H32" s="7">
         <v>264.10000000000002</v>
       </c>
-      <c r="F32" s="7">
-        <v>264</v>
-      </c>
-      <c r="G32" s="7">
-        <v>264.2</v>
-      </c>
-      <c r="H32" s="7">
-        <v>264.5</v>
-      </c>
       <c r="I32" s="7">
+        <v>265</v>
+      </c>
+      <c r="J32" s="7">
         <v>265.39999999999998</v>
       </c>
-      <c r="J32" s="7">
-        <v>265.8</v>
-      </c>
       <c r="K32" s="7">
-        <v>266.3</v>
+        <v>265.89999999999998</v>
       </c>
       <c r="L32" s="7">
-        <v>266.3</v>
+        <v>265.89999999999998</v>
       </c>
       <c r="M32" s="7">
-        <v>265.7</v>
+        <v>265.3</v>
       </c>
       <c r="N32" s="7">
-        <v>264.2</v>
+        <v>263.8</v>
       </c>
       <c r="O32" s="4"/>
     </row>
@@ -1788,43 +1764,43 @@
         <v>2003</v>
       </c>
       <c r="B33" s="7">
-        <v>266.89999999999998</v>
+        <v>266.39999999999998</v>
       </c>
       <c r="C33" s="7">
-        <v>269</v>
-      </c>
-      <c r="D33" s="8">
+        <v>268.60000000000002</v>
+      </c>
+      <c r="D33" s="7">
+        <v>270.2</v>
+      </c>
+      <c r="E33" s="7">
+        <v>269.5</v>
+      </c>
+      <c r="F33" s="7">
+        <v>269.10000000000002</v>
+      </c>
+      <c r="G33" s="7">
+        <v>269.5</v>
+      </c>
+      <c r="H33" s="7">
+        <v>269.7</v>
+      </c>
+      <c r="I33" s="7">
+        <v>270.7</v>
+      </c>
+      <c r="J33" s="7">
+        <v>271.60000000000002</v>
+      </c>
+      <c r="K33" s="7">
+        <v>271.39999999999998</v>
+      </c>
+      <c r="L33" s="7">
         <v>270.60000000000002</v>
       </c>
-      <c r="E33" s="8">
-        <v>269.89999999999998</v>
-      </c>
-      <c r="F33" s="7">
-        <v>269.5</v>
-      </c>
-      <c r="G33" s="7">
-        <v>269.89999999999998</v>
-      </c>
-      <c r="H33" s="7">
-        <v>270.2</v>
-      </c>
-      <c r="I33" s="7">
-        <v>271.2</v>
-      </c>
-      <c r="J33" s="7">
-        <v>272</v>
-      </c>
-      <c r="K33" s="7">
-        <v>271.8</v>
-      </c>
-      <c r="L33" s="7">
-        <v>271</v>
-      </c>
       <c r="M33" s="7">
-        <v>270.7</v>
+        <v>270.3</v>
       </c>
       <c r="N33" s="7">
-        <v>270.2</v>
+        <v>269.8</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1832,43 +1808,43 @@
         <v>2004</v>
       </c>
       <c r="B34" s="7">
-        <v>272.10000000000002</v>
+        <v>271.7</v>
       </c>
       <c r="C34" s="7">
-        <v>273.60000000000002</v>
-      </c>
-      <c r="D34" s="8">
-        <v>275.3</v>
-      </c>
-      <c r="E34" s="8">
-        <v>276.2</v>
+        <v>273.2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>274.89999999999998</v>
+      </c>
+      <c r="E34" s="7">
+        <v>275.8</v>
       </c>
       <c r="F34" s="7">
-        <v>277.7</v>
+        <v>277.3</v>
       </c>
       <c r="G34" s="7">
-        <v>278.60000000000002</v>
+        <v>278.2</v>
       </c>
       <c r="H34" s="7">
-        <v>278.3</v>
+        <v>277.8</v>
       </c>
       <c r="I34" s="7">
-        <v>278.39999999999998</v>
+        <v>277.89999999999998</v>
       </c>
       <c r="J34" s="7">
-        <v>278.89999999999998</v>
+        <v>278.5</v>
       </c>
       <c r="K34" s="7">
-        <v>280.39999999999998</v>
+        <v>280</v>
       </c>
       <c r="L34" s="7">
-        <v>280.60000000000002</v>
+        <v>280.2</v>
       </c>
       <c r="M34" s="7">
-        <v>279.60000000000002</v>
+        <v>279.10000000000002</v>
       </c>
       <c r="N34" s="7">
-        <v>277.5</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1876,43 +1852,43 @@
         <v>2005</v>
       </c>
       <c r="B35" s="7">
-        <v>280.10000000000002</v>
+        <v>279.60000000000002</v>
       </c>
       <c r="C35" s="7">
-        <v>281.7</v>
-      </c>
-      <c r="D35" s="8">
-        <v>283.89999999999998</v>
-      </c>
-      <c r="E35" s="8">
-        <v>285.8</v>
+        <v>281.3</v>
+      </c>
+      <c r="D35" s="7">
+        <v>283.5</v>
+      </c>
+      <c r="E35" s="7">
+        <v>285.39999999999998</v>
       </c>
       <c r="F35" s="7">
-        <v>285.60000000000002</v>
+        <v>285.2</v>
       </c>
       <c r="G35" s="7">
-        <v>285.7</v>
+        <v>285.2</v>
       </c>
       <c r="H35" s="7">
-        <v>287</v>
+        <v>286.5</v>
       </c>
       <c r="I35" s="7">
-        <v>288.5</v>
+        <v>288</v>
       </c>
       <c r="J35" s="7">
-        <v>292</v>
+        <v>291.5</v>
       </c>
       <c r="K35" s="7">
-        <v>292.60000000000002</v>
+        <v>292.2</v>
       </c>
       <c r="L35" s="7">
-        <v>290.3</v>
+        <v>289.8</v>
       </c>
       <c r="M35" s="7">
-        <v>289</v>
+        <v>288.60000000000002</v>
       </c>
       <c r="N35" s="7">
-        <v>286.89999999999998</v>
+        <v>286.39999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1920,43 +1896,43 @@
         <v>2006</v>
       </c>
       <c r="B36" s="7">
-        <v>291.3</v>
+        <v>290.8</v>
       </c>
       <c r="C36" s="7">
-        <v>291.89999999999998</v>
-      </c>
-      <c r="D36" s="8">
-        <v>293.60000000000002</v>
-      </c>
-      <c r="E36" s="8">
+        <v>291.39999999999998</v>
+      </c>
+      <c r="D36" s="7">
+        <v>293.10000000000002</v>
+      </c>
+      <c r="E36" s="7">
+        <v>295.5</v>
+      </c>
+      <c r="F36" s="7">
+        <v>296.89999999999998</v>
+      </c>
+      <c r="G36" s="7">
+        <v>297.60000000000002</v>
+      </c>
+      <c r="H36" s="7">
+        <v>298.39999999999998</v>
+      </c>
+      <c r="I36" s="7">
+        <v>299.10000000000002</v>
+      </c>
+      <c r="J36" s="7">
+        <v>297.60000000000002</v>
+      </c>
+      <c r="K36" s="7">
         <v>296</v>
       </c>
-      <c r="F36" s="7">
-        <v>297.39999999999998</v>
-      </c>
-      <c r="G36" s="7">
-        <v>298.10000000000002</v>
-      </c>
-      <c r="H36" s="7">
-        <v>298.89999999999998</v>
-      </c>
-      <c r="I36" s="7">
-        <v>299.60000000000002</v>
-      </c>
-      <c r="J36" s="7">
-        <v>298.10000000000002</v>
-      </c>
-      <c r="K36" s="7">
-        <v>296.5</v>
-      </c>
       <c r="L36" s="7">
+        <v>295.60000000000002</v>
+      </c>
+      <c r="M36" s="7">
         <v>296</v>
       </c>
-      <c r="M36" s="7">
-        <v>296.5</v>
-      </c>
       <c r="N36" s="7">
-        <v>296.2</v>
+        <v>295.7</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1964,43 +1940,43 @@
         <v>2007</v>
       </c>
       <c r="B37" s="7">
-        <v>297.39999999999998</v>
+        <v>296.89999999999998</v>
       </c>
       <c r="C37" s="7">
-        <v>299</v>
-      </c>
-      <c r="D37" s="8">
-        <v>301.7</v>
-      </c>
-      <c r="E37" s="8">
-        <v>303.60000000000002</v>
+        <v>298.5</v>
+      </c>
+      <c r="D37" s="7">
+        <v>301.2</v>
+      </c>
+      <c r="E37" s="7">
+        <v>303.10000000000002</v>
       </c>
       <c r="F37" s="7">
+        <v>305</v>
+      </c>
+      <c r="G37" s="7">
+        <v>305.60000000000002</v>
+      </c>
+      <c r="H37" s="7">
         <v>305.5</v>
       </c>
-      <c r="G37" s="7">
-        <v>306.10000000000002</v>
-      </c>
-      <c r="H37" s="7">
-        <v>306</v>
-      </c>
       <c r="I37" s="7">
-        <v>305.5</v>
+        <v>304.89999999999998</v>
       </c>
       <c r="J37" s="7">
-        <v>306.3</v>
+        <v>305.8</v>
       </c>
       <c r="K37" s="7">
-        <v>306.89999999999998</v>
+        <v>306.39999999999998</v>
       </c>
       <c r="L37" s="7">
-        <v>308.8</v>
+        <v>308.3</v>
       </c>
       <c r="M37" s="7">
-        <v>308.60000000000002</v>
+        <v>308.10000000000002</v>
       </c>
       <c r="N37" s="7">
-        <v>304.60000000000002</v>
+        <v>304.10000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2008,43 +1984,43 @@
         <v>2008</v>
       </c>
       <c r="B38" s="7">
-        <v>310.10000000000002</v>
+        <v>309.60000000000002</v>
       </c>
       <c r="C38" s="7">
-        <v>311</v>
-      </c>
-      <c r="D38" s="8">
-        <v>313.7</v>
-      </c>
-      <c r="E38" s="8">
-        <v>315.60000000000002</v>
+        <v>310.5</v>
+      </c>
+      <c r="D38" s="7">
+        <v>313.2</v>
+      </c>
+      <c r="E38" s="7">
+        <v>315.10000000000002</v>
       </c>
       <c r="F38" s="7">
-        <v>318.2</v>
+        <v>317.7</v>
       </c>
       <c r="G38" s="7">
-        <v>321.5</v>
+        <v>320.89999999999998</v>
       </c>
       <c r="H38" s="7">
-        <v>323.2</v>
+        <v>322.60000000000002</v>
       </c>
       <c r="I38" s="7">
-        <v>321.89999999999998</v>
+        <v>321.3</v>
       </c>
       <c r="J38" s="7">
-        <v>321.39999999999998</v>
+        <v>320.89999999999998</v>
       </c>
       <c r="K38" s="7">
-        <v>318.2</v>
+        <v>317.60000000000002</v>
       </c>
       <c r="L38" s="7">
-        <v>312.10000000000002</v>
+        <v>311.60000000000002</v>
       </c>
       <c r="M38" s="7">
-        <v>308.8</v>
+        <v>308.3</v>
       </c>
       <c r="N38" s="7">
-        <v>316.3</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2052,43 +2028,43 @@
         <v>2009</v>
       </c>
       <c r="B39" s="7">
-        <v>310.2</v>
+        <v>309.7</v>
       </c>
       <c r="C39" s="7">
-        <v>311.7</v>
-      </c>
-      <c r="D39" s="8">
-        <v>312.5</v>
-      </c>
-      <c r="E39" s="8">
-        <v>313.3</v>
+        <v>311.2</v>
+      </c>
+      <c r="D39" s="7">
+        <v>312</v>
+      </c>
+      <c r="E39" s="7">
+        <v>312.8</v>
       </c>
       <c r="F39" s="7">
-        <v>314.2</v>
+        <v>313.7</v>
       </c>
       <c r="G39" s="7">
-        <v>316.89999999999998</v>
+        <v>316.39999999999998</v>
       </c>
       <c r="H39" s="7">
-        <v>316.39999999999998</v>
+        <v>315.8</v>
       </c>
       <c r="I39" s="7">
+        <v>316.60000000000002</v>
+      </c>
+      <c r="J39" s="7">
+        <v>316.8</v>
+      </c>
+      <c r="K39" s="7">
         <v>317.10000000000002</v>
       </c>
-      <c r="J39" s="7">
+      <c r="L39" s="7">
         <v>317.3</v>
       </c>
-      <c r="K39" s="7">
-        <v>317.60000000000002</v>
-      </c>
-      <c r="L39" s="7">
-        <v>317.8</v>
-      </c>
       <c r="M39" s="7">
-        <v>317.3</v>
+        <v>316.7</v>
       </c>
       <c r="N39" s="7">
-        <v>315.2</v>
+        <v>314.7</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2096,43 +2072,43 @@
         <v>2010</v>
       </c>
       <c r="B40" s="7">
-        <v>318.3</v>
+        <v>317.8</v>
       </c>
       <c r="C40" s="7">
-        <v>318.39999999999998</v>
-      </c>
-      <c r="D40" s="8">
+        <v>317.89999999999998</v>
+      </c>
+      <c r="D40" s="7">
+        <v>319.2</v>
+      </c>
+      <c r="E40" s="7">
+        <v>319.8</v>
+      </c>
+      <c r="F40" s="7">
+        <v>320</v>
+      </c>
+      <c r="G40" s="7">
         <v>319.7</v>
       </c>
-      <c r="E40" s="8">
-        <v>320.3</v>
-      </c>
-      <c r="F40" s="7">
-        <v>320.5</v>
-      </c>
-      <c r="G40" s="7">
+      <c r="H40" s="7">
+        <v>319.8</v>
+      </c>
+      <c r="I40" s="7">
         <v>320.2</v>
       </c>
-      <c r="H40" s="7">
-        <v>320.3</v>
-      </c>
-      <c r="I40" s="7">
-        <v>320.7</v>
-      </c>
       <c r="J40" s="7">
+        <v>320.39999999999998</v>
+      </c>
+      <c r="K40" s="7">
+        <v>320.8</v>
+      </c>
+      <c r="L40" s="7">
         <v>320.89999999999998</v>
       </c>
-      <c r="K40" s="7">
-        <v>321.3</v>
-      </c>
-      <c r="L40" s="7">
+      <c r="M40" s="7">
         <v>321.5</v>
       </c>
-      <c r="M40" s="7">
-        <v>322</v>
-      </c>
       <c r="N40" s="7">
-        <v>320.39999999999998</v>
+        <v>319.8</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2140,43 +2116,43 @@
         <v>2011</v>
       </c>
       <c r="B41" s="7">
-        <v>323.60000000000002</v>
+        <v>323</v>
       </c>
       <c r="C41" s="7">
-        <v>325.2</v>
-      </c>
-      <c r="D41" s="8">
-        <v>328.3</v>
-      </c>
-      <c r="E41" s="8">
-        <v>330.5</v>
+        <v>324.60000000000002</v>
+      </c>
+      <c r="D41" s="7">
+        <v>327.8</v>
+      </c>
+      <c r="E41" s="7">
+        <v>329.9</v>
       </c>
       <c r="F41" s="7">
-        <v>332</v>
+        <v>331.5</v>
       </c>
       <c r="G41" s="7">
-        <v>331.7</v>
+        <v>331.1</v>
       </c>
       <c r="H41" s="7">
-        <v>332</v>
+        <v>331.4</v>
       </c>
       <c r="I41" s="7">
-        <v>332.9</v>
+        <v>332.3</v>
       </c>
       <c r="J41" s="7">
-        <v>333.4</v>
+        <v>332.8</v>
       </c>
       <c r="K41" s="7">
-        <v>332.7</v>
+        <v>332.2</v>
       </c>
       <c r="L41" s="7">
-        <v>332.4</v>
+        <v>331.9</v>
       </c>
       <c r="M41" s="7">
-        <v>331.6</v>
+        <v>331.1</v>
       </c>
       <c r="N41" s="7">
-        <v>330.5</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2184,43 +2160,43 @@
         <v>2012</v>
       </c>
       <c r="B42" s="7">
-        <v>333.1</v>
+        <v>332.6</v>
       </c>
       <c r="C42" s="7">
-        <v>334.6</v>
-      </c>
-      <c r="D42" s="8">
-        <v>337.1</v>
-      </c>
-      <c r="E42" s="8">
+        <v>334</v>
+      </c>
+      <c r="D42" s="7">
+        <v>336.6</v>
+      </c>
+      <c r="E42" s="7">
+        <v>337.6</v>
+      </c>
+      <c r="F42" s="7">
+        <v>337.2</v>
+      </c>
+      <c r="G42" s="7">
+        <v>336.7</v>
+      </c>
+      <c r="H42" s="7">
+        <v>336.2</v>
+      </c>
+      <c r="I42" s="7">
         <v>338.1</v>
       </c>
-      <c r="F42" s="7">
-        <v>337.7</v>
-      </c>
-      <c r="G42" s="7">
-        <v>337.3</v>
-      </c>
-      <c r="H42" s="7">
-        <v>336.7</v>
-      </c>
-      <c r="I42" s="7">
-        <v>338.6</v>
-      </c>
       <c r="J42" s="7">
-        <v>340.1</v>
+        <v>339.6</v>
       </c>
       <c r="K42" s="7">
-        <v>340</v>
+        <v>339.5</v>
       </c>
       <c r="L42" s="7">
-        <v>338.4</v>
+        <v>337.9</v>
       </c>
       <c r="M42" s="7">
-        <v>337.5</v>
+        <v>337</v>
       </c>
       <c r="N42" s="7">
-        <v>337.5</v>
+        <v>336.9</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2228,43 +2204,43 @@
         <v>2013</v>
       </c>
       <c r="B43" s="7">
-        <v>338.6</v>
+        <v>338</v>
       </c>
       <c r="C43" s="7">
-        <v>341.4</v>
-      </c>
-      <c r="D43" s="8">
+        <v>340.8</v>
+      </c>
+      <c r="D43" s="7">
+        <v>341.7</v>
+      </c>
+      <c r="E43" s="7">
+        <v>341.3</v>
+      </c>
+      <c r="F43" s="7">
+        <v>341.9</v>
+      </c>
+      <c r="G43" s="7">
+        <v>342.8</v>
+      </c>
+      <c r="H43" s="7">
+        <v>342.9</v>
+      </c>
+      <c r="I43" s="7">
+        <v>343.3</v>
+      </c>
+      <c r="J43" s="7">
+        <v>343.8</v>
+      </c>
+      <c r="K43" s="7">
+        <v>342.9</v>
+      </c>
+      <c r="L43" s="7">
         <v>342.2</v>
       </c>
-      <c r="E43" s="8">
-        <v>341.9</v>
-      </c>
-      <c r="F43" s="7">
-        <v>342.5</v>
-      </c>
-      <c r="G43" s="7">
-        <v>343.3</v>
-      </c>
-      <c r="H43" s="7">
-        <v>343.5</v>
-      </c>
-      <c r="I43" s="7">
-        <v>343.9</v>
-      </c>
-      <c r="J43" s="7">
-        <v>344.3</v>
-      </c>
-      <c r="K43" s="7">
-        <v>343.4</v>
-      </c>
-      <c r="L43" s="7">
-        <v>342.8</v>
-      </c>
       <c r="M43" s="7">
-        <v>342.8</v>
+        <v>342.2</v>
       </c>
       <c r="N43" s="7">
-        <v>342.5</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2272,43 +2248,43 @@
         <v>2014</v>
       </c>
       <c r="B44" s="7">
-        <v>344.1</v>
+        <v>343.5</v>
       </c>
       <c r="C44" s="7">
-        <v>345.4</v>
-      </c>
-      <c r="D44" s="8">
-        <v>347.6</v>
-      </c>
-      <c r="E44" s="8">
+        <v>344.8</v>
+      </c>
+      <c r="D44" s="7">
+        <v>347</v>
+      </c>
+      <c r="E44" s="7">
+        <v>348.2</v>
+      </c>
+      <c r="F44" s="7">
+        <v>349.4</v>
+      </c>
+      <c r="G44" s="7">
+        <v>350.1</v>
+      </c>
+      <c r="H44" s="7">
+        <v>349.9</v>
+      </c>
+      <c r="I44" s="7">
+        <v>349.3</v>
+      </c>
+      <c r="J44" s="7">
+        <v>349.6</v>
+      </c>
+      <c r="K44" s="7">
         <v>348.7</v>
       </c>
-      <c r="F44" s="7">
-        <v>350</v>
-      </c>
-      <c r="G44" s="7">
-        <v>350.7</v>
-      </c>
-      <c r="H44" s="7">
-        <v>350.5</v>
-      </c>
-      <c r="I44" s="7">
-        <v>349.9</v>
-      </c>
-      <c r="J44" s="7">
-        <v>350.2</v>
-      </c>
-      <c r="K44" s="7">
-        <v>349.3</v>
-      </c>
       <c r="L44" s="7">
-        <v>347.5</v>
+        <v>346.9</v>
       </c>
       <c r="M44" s="7">
-        <v>345.6</v>
+        <v>344.9</v>
       </c>
       <c r="N44" s="7">
-        <v>348.3</v>
+        <v>347.7</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2316,43 +2292,43 @@
         <v>2015</v>
       </c>
       <c r="B45" s="7">
-        <v>344</v>
+        <v>343.4</v>
       </c>
       <c r="C45" s="7">
-        <v>345.5</v>
-      </c>
-      <c r="D45" s="8">
-        <v>347.5</v>
-      </c>
-      <c r="E45" s="8">
+        <v>344.9</v>
+      </c>
+      <c r="D45" s="7">
+        <v>346.9</v>
+      </c>
+      <c r="E45" s="7">
+        <v>347.7</v>
+      </c>
+      <c r="F45" s="7">
+        <v>349.4</v>
+      </c>
+      <c r="G45" s="7">
+        <v>350.7</v>
+      </c>
+      <c r="H45" s="7">
+        <v>350.7</v>
+      </c>
+      <c r="I45" s="7">
+        <v>350.2</v>
+      </c>
+      <c r="J45" s="7">
+        <v>349.7</v>
+      </c>
+      <c r="K45" s="7">
+        <v>349.5</v>
+      </c>
+      <c r="L45" s="7">
+        <v>348.8</v>
+      </c>
+      <c r="M45" s="7">
+        <v>347.6</v>
+      </c>
+      <c r="N45" s="7">
         <v>348.3</v>
-      </c>
-      <c r="F45" s="7">
-        <v>350</v>
-      </c>
-      <c r="G45" s="7">
-        <v>351.3</v>
-      </c>
-      <c r="H45" s="7">
-        <v>351.3</v>
-      </c>
-      <c r="I45" s="7">
-        <v>350.8</v>
-      </c>
-      <c r="J45" s="7">
-        <v>350.3</v>
-      </c>
-      <c r="K45" s="7">
-        <v>350.2</v>
-      </c>
-      <c r="L45" s="7">
-        <v>349.4</v>
-      </c>
-      <c r="M45" s="7">
-        <v>348.3</v>
-      </c>
-      <c r="N45" s="7">
-        <v>348.9</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2360,43 +2336,43 @@
         <v>2016</v>
       </c>
       <c r="B46" s="7">
-        <v>348.8</v>
+        <v>348.2</v>
       </c>
       <c r="C46" s="7">
-        <v>349.1</v>
-      </c>
-      <c r="D46" s="8">
-        <v>350.6</v>
-      </c>
-      <c r="E46" s="8">
-        <v>352.3</v>
+        <v>348.5</v>
+      </c>
+      <c r="D46" s="7">
+        <v>350</v>
+      </c>
+      <c r="E46" s="7">
+        <v>351.7</v>
       </c>
       <c r="F46" s="7">
+        <v>353.1</v>
+      </c>
+      <c r="G46" s="7">
+        <v>354.2</v>
+      </c>
+      <c r="H46" s="7">
         <v>353.7</v>
       </c>
-      <c r="G46" s="7">
+      <c r="I46" s="7">
+        <v>354</v>
+      </c>
+      <c r="J46" s="7">
+        <v>354.8</v>
+      </c>
+      <c r="K46" s="7">
+        <v>355.3</v>
+      </c>
+      <c r="L46" s="7">
+        <v>354.7</v>
+      </c>
+      <c r="M46" s="7">
         <v>354.9</v>
       </c>
-      <c r="H46" s="7">
-        <v>354.3</v>
-      </c>
-      <c r="I46" s="7">
-        <v>354.7</v>
-      </c>
-      <c r="J46" s="7">
-        <v>355.5</v>
-      </c>
-      <c r="K46" s="7">
-        <v>356</v>
-      </c>
-      <c r="L46" s="7">
-        <v>355.4</v>
-      </c>
-      <c r="M46" s="7">
-        <v>355.5</v>
-      </c>
       <c r="N46" s="7">
-        <v>353.4</v>
+        <v>352.8</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2404,43 +2380,43 @@
         <v>2017</v>
       </c>
       <c r="B47" s="7">
-        <v>357.6</v>
+        <v>356.9</v>
       </c>
       <c r="C47" s="7">
-        <v>358.7</v>
-      </c>
-      <c r="D47" s="8">
-        <v>359</v>
-      </c>
-      <c r="E47" s="8">
-        <v>360.1</v>
+        <v>358</v>
+      </c>
+      <c r="D47" s="7">
+        <v>358.3</v>
+      </c>
+      <c r="E47" s="7">
+        <v>359.4</v>
       </c>
       <c r="F47" s="7">
-        <v>360.4</v>
+        <v>359.7</v>
       </c>
       <c r="G47" s="7">
-        <v>360.7</v>
+        <v>360</v>
       </c>
       <c r="H47" s="7">
-        <v>360.5</v>
+        <v>359.8</v>
       </c>
       <c r="I47" s="7">
-        <v>361.6</v>
+        <v>360.9</v>
       </c>
       <c r="J47" s="7">
-        <v>363.5</v>
+        <v>362.8</v>
       </c>
       <c r="K47" s="7">
-        <v>363.2</v>
+        <v>362.5</v>
       </c>
       <c r="L47" s="7">
-        <v>363.3</v>
+        <v>362.6</v>
       </c>
       <c r="M47" s="7">
-        <v>363.1</v>
+        <v>362.3</v>
       </c>
       <c r="N47" s="7">
-        <v>361</v>
+        <v>360.3</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2448,43 +2424,43 @@
         <v>2018</v>
       </c>
       <c r="B48" s="7">
-        <v>365</v>
+        <v>364.3</v>
       </c>
       <c r="C48" s="7">
+        <v>366</v>
+      </c>
+      <c r="D48" s="7">
         <v>366.7</v>
       </c>
-      <c r="D48" s="8">
-        <v>367.5</v>
-      </c>
-      <c r="E48" s="8">
-        <v>369</v>
+      <c r="E48" s="7">
+        <v>368.3</v>
       </c>
       <c r="F48" s="7">
-        <v>370.5</v>
+        <v>369.8</v>
       </c>
       <c r="G48" s="7">
+        <v>370.3</v>
+      </c>
+      <c r="H48" s="7">
+        <v>370.4</v>
+      </c>
+      <c r="I48" s="7">
+        <v>370.7</v>
+      </c>
+      <c r="J48" s="7">
         <v>371.1</v>
       </c>
-      <c r="H48" s="7">
-        <v>371.1</v>
-      </c>
-      <c r="I48" s="7">
-        <v>371.3</v>
-      </c>
-      <c r="J48" s="7">
+      <c r="K48" s="7">
         <v>371.8</v>
       </c>
-      <c r="K48" s="7">
-        <v>372.4</v>
-      </c>
       <c r="L48" s="7">
-        <v>371.2</v>
+        <v>370.6</v>
       </c>
       <c r="M48" s="7">
-        <v>370</v>
+        <v>369.3</v>
       </c>
       <c r="N48" s="7">
-        <v>369.8</v>
+        <v>369.1</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2492,43 +2468,43 @@
         <v>2019</v>
       </c>
       <c r="B49" s="7">
-        <v>370.7</v>
+        <v>370</v>
       </c>
       <c r="C49" s="7">
-        <v>372.2</v>
-      </c>
-      <c r="D49" s="8">
-        <v>374.3</v>
-      </c>
-      <c r="E49" s="8">
-        <v>376.3</v>
+        <v>371.5</v>
+      </c>
+      <c r="D49" s="7">
+        <v>373.6</v>
+      </c>
+      <c r="E49" s="7">
+        <v>375.6</v>
       </c>
       <c r="F49" s="7">
+        <v>376.4</v>
+      </c>
+      <c r="G49" s="7">
+        <v>376.5</v>
+      </c>
+      <c r="H49" s="7">
+        <v>377.2</v>
+      </c>
+      <c r="I49" s="7">
         <v>377.1</v>
       </c>
-      <c r="G49" s="7">
-        <v>377.2</v>
-      </c>
-      <c r="H49" s="7">
+      <c r="J49" s="7">
+        <v>377.5</v>
+      </c>
+      <c r="K49" s="7">
+        <v>378.4</v>
+      </c>
+      <c r="L49" s="7">
+        <v>378.2</v>
+      </c>
+      <c r="M49" s="7">
         <v>377.8</v>
       </c>
-      <c r="I49" s="7">
-        <v>377.8</v>
-      </c>
-      <c r="J49" s="7">
-        <v>378.1</v>
-      </c>
-      <c r="K49" s="7">
-        <v>379</v>
-      </c>
-      <c r="L49" s="7">
-        <v>378.8</v>
-      </c>
-      <c r="M49" s="7">
-        <v>378.5</v>
-      </c>
       <c r="N49" s="7">
-        <v>376.5</v>
+        <v>375.8</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -2536,43 +2512,43 @@
         <v>2020</v>
       </c>
       <c r="B50" s="7">
-        <v>379.9</v>
+        <v>379.2</v>
       </c>
       <c r="C50" s="7">
-        <v>381</v>
-      </c>
-      <c r="D50" s="8">
-        <v>380.1</v>
-      </c>
-      <c r="E50" s="8">
-        <v>377.6</v>
+        <v>380.2</v>
+      </c>
+      <c r="D50" s="7">
+        <v>379.5</v>
+      </c>
+      <c r="E50" s="7">
+        <v>377.2</v>
       </c>
       <c r="F50" s="7">
-        <v>377.6</v>
+        <v>377.2</v>
       </c>
       <c r="G50" s="7">
-        <v>379.7</v>
+        <v>379.4</v>
       </c>
       <c r="H50" s="7">
-        <v>381.6</v>
+        <v>381.3</v>
       </c>
       <c r="I50" s="7">
-        <v>382.8</v>
+        <v>382.6</v>
       </c>
       <c r="J50" s="7">
-        <v>383.3</v>
+        <v>383.1</v>
       </c>
       <c r="K50" s="7">
-        <v>383.5</v>
+        <v>383.2</v>
       </c>
       <c r="L50" s="7">
+        <v>382.9</v>
+      </c>
+      <c r="M50" s="7">
         <v>383.2</v>
       </c>
-      <c r="M50" s="7">
-        <v>383.6</v>
-      </c>
       <c r="N50" s="7">
-        <v>381.2</v>
+        <v>380.8</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -2580,43 +2556,87 @@
         <v>2021</v>
       </c>
       <c r="B51" s="7">
-        <v>385.2</v>
+        <v>384.9</v>
       </c>
       <c r="C51" s="7">
-        <v>387.3</v>
-      </c>
-      <c r="D51" s="8">
+        <v>387.1</v>
+      </c>
+      <c r="D51" s="7">
         <v>390</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="7">
         <v>393.2</v>
       </c>
       <c r="F51" s="7">
-        <v>396.4</v>
+        <v>396.7</v>
       </c>
       <c r="G51" s="7">
-        <v>400</v>
+        <v>400.5</v>
       </c>
       <c r="H51" s="7">
-        <v>402</v>
+        <v>402.4</v>
       </c>
       <c r="I51" s="7">
-        <v>402.8</v>
+        <v>403.1</v>
       </c>
       <c r="J51" s="7">
-        <v>403.9</v>
+        <v>404.2</v>
       </c>
       <c r="K51" s="7">
-        <v>407.2</v>
+        <v>407.6</v>
       </c>
       <c r="L51" s="7">
-        <v>409.2</v>
+        <v>409.5</v>
       </c>
       <c r="M51" s="7">
-        <v>410.5</v>
+        <v>410.8</v>
       </c>
       <c r="N51" s="7">
-        <v>399</v>
+        <v>399.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B52" s="11">
+        <v>414.3</v>
+      </c>
+      <c r="C52" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="D52" s="11">
+        <v>423.9</v>
+      </c>
+      <c r="E52" s="11">
+        <v>426.3</v>
+      </c>
+      <c r="F52" s="11">
+        <v>431</v>
+      </c>
+      <c r="G52" s="11">
+        <v>436.9</v>
+      </c>
+      <c r="H52" s="11">
+        <v>436.8</v>
+      </c>
+      <c r="I52" s="11">
+        <v>436.7</v>
+      </c>
+      <c r="J52" s="11">
+        <v>437.6</v>
+      </c>
+      <c r="K52" s="11">
+        <v>439.4</v>
+      </c>
+      <c r="L52" s="11">
+        <v>439</v>
+      </c>
+      <c r="M52" s="11">
+        <v>437.6</v>
+      </c>
+      <c r="N52" s="11">
+        <v>431.5</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/cpi_u_rs.xlsx
+++ b/data-raw/cpi_u_rs.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czippel\Documents\GitHub\Rcbpp\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akin_B\OneDrive - US Department of Labor - BLS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9FCF549-0269-4975-A5DF-3CCDD18A3AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B199323-DD2D-4274-B22D-14FCF0F50907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="All items" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -138,27 +138,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
@@ -175,14 +163,17 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,11 +479,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -502,2150 +491,2188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-    </row>
-    <row r="3" spans="1:15" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="4"/>
+      <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>1977</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="3">
         <v>100</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="4"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>1978</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <v>100.5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>101.1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="3">
         <v>101.8</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="3">
         <v>102.7</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="3">
         <v>103.6</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="3">
         <v>104.5</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="3">
         <v>105</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="3">
         <v>105.5</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="3">
         <v>106.1</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="3">
         <v>106.7</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="3">
         <v>107.3</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="3">
         <v>107.8</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="3">
         <v>104.4</v>
       </c>
-      <c r="O8" s="4"/>
+      <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>1979</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="3">
         <v>108.7</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <v>109.7</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="3">
         <v>110.7</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <v>111.8</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="3">
         <v>113</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="3">
         <v>114.1</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="3">
         <v>115.1</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="3">
         <v>116</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="3">
         <v>117.1</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="3">
         <v>117.9</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="3">
         <v>118.5</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="3">
         <v>119.5</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="3">
         <v>114.3</v>
       </c>
-      <c r="O9" s="4"/>
+      <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>1980</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="3">
         <v>120.8</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <v>122.4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="3">
         <v>123.8</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <v>124.7</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="3">
         <v>125.7</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="3">
         <v>126.7</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="3">
         <v>127.5</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="3">
         <v>128.6</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="3">
         <v>129.9</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="3">
         <v>130.69999999999999</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="3">
         <v>131.5</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="3">
         <v>132.4</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="3">
         <v>127.1</v>
       </c>
-      <c r="O10" s="4"/>
+      <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <v>1981</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="3">
         <v>133.6</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <v>135.19999999999999</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="3">
         <v>136.30000000000001</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="3">
         <v>137.1</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="3">
         <v>137.9</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="3">
         <v>138.69999999999999</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="3">
         <v>139.69999999999999</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="3">
         <v>140.69999999999999</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="3">
         <v>141.80000000000001</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="3">
         <v>142.4</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="3">
         <v>142.9</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="3">
         <v>143.4</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="3">
         <v>139.1</v>
       </c>
-      <c r="O11" s="4"/>
+      <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <v>1982</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="3">
         <v>144.19999999999999</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <v>144.69999999999999</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="3">
         <v>144.9</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
         <v>145</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="3">
         <v>146.1</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="3">
         <v>147.5</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="3">
         <v>148.5</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="3">
         <v>148.80000000000001</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="3">
         <v>149.5</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="3">
         <v>150.19999999999999</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="3">
         <v>150.5</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="3">
         <v>150.6</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="3">
         <v>147.5</v>
       </c>
-      <c r="O12" s="4"/>
+      <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="2">
         <v>1983</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="3">
         <v>151</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <v>151.1</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="3">
         <v>151.19999999999999</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="3">
         <v>152.4</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="3">
         <v>153.19999999999999</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="3">
         <v>153.69999999999999</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="3">
         <v>154.30000000000001</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="3">
         <v>154.80000000000001</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="3">
         <v>155.6</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="3">
         <v>156</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="3">
         <v>156.1</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="3">
         <v>156.30000000000001</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="3">
         <v>153.80000000000001</v>
       </c>
-      <c r="O13" s="4"/>
+      <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="2">
         <v>1984</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="3">
         <v>157.19999999999999</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>158</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <v>158.30000000000001</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="3">
         <v>159</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="3">
         <v>159.5</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="3">
         <v>159.9</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="3">
         <v>160.4</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="3">
         <v>161.1</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="3">
         <v>161.80000000000001</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="3">
         <v>162.19999999999999</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="3">
         <v>162.19999999999999</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="3">
         <v>162.30000000000001</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="3">
         <v>160.19999999999999</v>
       </c>
-      <c r="O14" s="4"/>
+      <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <v>1985</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="3">
         <v>162.5</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>163.19999999999999</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="3">
         <v>163.9</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="3">
         <v>164.6</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="3">
         <v>165.2</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="3">
         <v>165.6</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="3">
         <v>165.9</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="3">
         <v>166.2</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="3">
         <v>166.8</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="3">
         <v>167.2</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="3">
         <v>167.7</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="3">
         <v>168.1</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="3">
         <v>165.6</v>
       </c>
-      <c r="O15" s="4"/>
+      <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <v>1986</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="3">
         <v>168.6</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <v>168.1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="3">
         <v>167.3</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="3">
         <v>166.9</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="3">
         <v>167.4</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="3">
         <v>168.2</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="3">
         <v>168.2</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="3">
         <v>168.5</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="3">
         <v>169.4</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="3">
         <v>169.5</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="3">
         <v>169.5</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="3">
         <v>169.6</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="3">
         <v>168.4</v>
       </c>
-      <c r="O16" s="4"/>
+      <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="2">
         <v>1987</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="3">
         <v>170.6</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <v>171.3</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="3">
         <v>172</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="3">
         <v>172.9</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="3">
         <v>173.4</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="3">
         <v>174</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="3">
         <v>174.3</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="3">
         <v>175.3</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="3">
         <v>176.1</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="3">
         <v>176.5</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="3">
         <v>176.6</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="3">
         <v>176.5</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="3">
         <v>174.1</v>
       </c>
-      <c r="O17" s="4"/>
+      <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="2">
         <v>1988</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="3">
         <v>177</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="3">
         <v>177.3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="3">
         <v>178</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="3">
         <v>178.9</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="3">
         <v>179.5</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="3">
         <v>180.1</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="3">
         <v>180.8</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="3">
         <v>181.6</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="3">
         <v>182.7</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="3">
         <v>183.2</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="3">
         <v>183.3</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="3">
         <v>183.4</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="3">
         <v>180.5</v>
       </c>
-      <c r="O18" s="4"/>
+      <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="2">
         <v>1989</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="3">
         <v>184.3</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="3">
         <v>184.9</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="3">
         <v>185.9</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="3">
         <v>187.2</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="3">
         <v>188.1</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="3">
         <v>188.5</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="3">
         <v>189</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="3">
         <v>189.2</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="3">
         <v>189.8</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="3">
         <v>190.6</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="3">
         <v>190.9</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="3">
         <v>191.1</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="3">
         <v>188.3</v>
       </c>
-      <c r="O19" s="4"/>
+      <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="2">
         <v>1990</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="3">
         <v>193</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <v>193.9</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="3">
         <v>194.9</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="3">
         <v>195.2</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="3">
         <v>195.5</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="3">
         <v>196.5</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="3">
         <v>197.3</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="3">
         <v>199</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="3">
         <v>200.6</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="3">
         <v>201.7</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="3">
         <v>202</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="3">
         <v>202</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="3">
         <v>197.6</v>
       </c>
-      <c r="O20" s="4"/>
+      <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="2">
         <v>1991</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="3">
         <v>202.9</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="3">
         <v>203.1</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="3">
         <v>203.3</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="3">
         <v>203.5</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="3">
         <v>204.1</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="3">
         <v>204.5</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="3">
         <v>204.7</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="3">
         <v>205.2</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="3">
         <v>206.1</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="3">
         <v>206.2</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="3">
         <v>206.7</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="3">
         <v>206.8</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="3">
         <v>204.8</v>
       </c>
-      <c r="O21" s="4"/>
+      <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="2">
         <v>1992</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="3">
         <v>207.2</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="3">
         <v>207.7</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="3">
         <v>208.6</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="3">
         <v>209</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="3">
         <v>209.3</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="3">
         <v>209.7</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="3">
         <v>210.1</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="3">
         <v>210.6</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="3">
         <v>211.2</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="3">
         <v>211.8</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="3">
         <v>212.1</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="3">
         <v>211.9</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="3">
         <v>209.9</v>
       </c>
-      <c r="O22" s="4"/>
+      <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="2">
         <v>1993</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="3">
         <v>212.6</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="3">
         <v>213.3</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="3">
         <v>214</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="3">
         <v>214.5</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="3">
         <v>215</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="3">
         <v>215.2</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="3">
         <v>215.3</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="3">
         <v>215.7</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="3">
         <v>216</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="3">
         <v>216.7</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="3">
         <v>216.9</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="3">
         <v>216.7</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="3">
         <v>215.2</v>
       </c>
-      <c r="O23" s="4"/>
+      <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="2">
         <v>1994</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="3">
         <v>217.1</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="3">
         <v>217.6</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="3">
         <v>218.4</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="3">
         <v>218.6</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="3">
         <v>218.9</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="3">
         <v>219.5</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="3">
         <v>220</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="3">
         <v>220.7</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="3">
         <v>221.1</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="3">
         <v>221.2</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="3">
         <v>221.5</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="3">
         <v>221.4</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="3">
         <v>219.7</v>
       </c>
-      <c r="O24" s="4"/>
+      <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="2">
         <v>1995</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="3">
         <v>222.2</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="3">
         <v>222.9</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="3">
         <v>223.6</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="3">
         <v>224.3</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="3">
         <v>224.7</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="3">
         <v>225.2</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="3">
         <v>225.3</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="3">
         <v>225.7</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="3">
         <v>226.1</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="3">
         <v>226.7</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="3">
         <v>226.5</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="3">
         <v>226.4</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="3">
         <v>225</v>
       </c>
-      <c r="O25" s="4"/>
+      <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="2">
         <v>1996</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="3">
         <v>227.5</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="3">
         <v>228.3</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="3">
         <v>229.4</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="3">
         <v>230.2</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="3">
         <v>230.8</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="3">
         <v>230.9</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="3">
         <v>231.3</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="3">
         <v>231.5</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="3">
         <v>232.3</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="3">
         <v>233</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="3">
         <v>233.4</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="3">
         <v>233.4</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="3">
         <v>231</v>
       </c>
-      <c r="O26" s="4"/>
+      <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="2">
         <v>1997</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="3">
         <v>234.1</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="3">
         <v>234.7</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="3">
         <v>235.2</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="3">
         <v>235.5</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="3">
         <v>235.4</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="3">
         <v>235.8</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="3">
         <v>235.9</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="3">
         <v>236.3</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="3">
         <v>237.1</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="3">
         <v>237.5</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="3">
         <v>237.4</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="3">
         <v>237</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="3">
         <v>236</v>
       </c>
-      <c r="O27" s="4"/>
+      <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="2">
         <v>1998</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="3">
         <v>237.4</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="3">
         <v>237.8</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="3">
         <v>238.1</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="3">
         <v>238.6</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="3">
         <v>239</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="3">
         <v>239.1</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="3">
         <v>239.4</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="3">
         <v>239.7</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="3">
         <v>240</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="3">
         <v>240.5</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="3">
         <v>240.5</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="3">
         <v>240.3</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="3">
         <v>239.2</v>
       </c>
-      <c r="O28" s="4"/>
+      <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="2">
         <v>1999</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="3">
         <v>240.9</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="3">
         <v>241.2</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="3">
         <v>241.9</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="3">
         <v>243.6</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="3">
         <v>243.6</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="3">
         <v>243.7</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="3">
         <v>244.4</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="3">
         <v>245.1</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="3">
         <v>246.2</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="3">
         <v>246.7</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="3">
         <v>246.8</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="3">
         <v>246.8</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="3">
         <v>244.2</v>
       </c>
-      <c r="O29" s="4"/>
+      <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="2">
         <v>2000</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="3">
         <v>247.6</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="3">
         <v>249.1</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="3">
         <v>251.1</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="3">
         <v>251.2</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="3">
         <v>251.4</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="3">
         <v>252.9</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="3">
         <v>253.4</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="3">
         <v>253.4</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="3">
         <v>254.8</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="3">
         <v>255.1</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="3">
         <v>255.3</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="3">
         <v>255.1</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="3">
         <v>252.5</v>
       </c>
-      <c r="O30" s="4"/>
+      <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="2">
         <v>2001</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="3">
         <v>256.8</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="3">
         <v>257.89999999999998</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="3">
         <v>258.5</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="3">
         <v>259.5</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="3">
         <v>260.5</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="3">
         <v>261.10000000000002</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="3">
         <v>260.3</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="3">
         <v>260.39999999999998</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="3">
         <v>261.39999999999998</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="3">
         <v>260.60000000000002</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="3">
         <v>260.10000000000002</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="3">
         <v>259.10000000000002</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="3">
         <v>259.7</v>
       </c>
-      <c r="O31" s="4"/>
+      <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="2">
         <v>2002</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="3">
         <v>259.8</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="3">
         <v>260.8</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="3">
         <v>262.2</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="3">
         <v>263.7</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="3">
         <v>263.60000000000002</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="3">
         <v>263.89999999999998</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="3">
         <v>264.10000000000002</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="3">
         <v>265</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="3">
         <v>265.39999999999998</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="3">
         <v>265.89999999999998</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="3">
         <v>265.89999999999998</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="3">
         <v>265.3</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="3">
         <v>263.8</v>
       </c>
-      <c r="O32" s="4"/>
+      <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="2">
         <v>2003</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="3">
         <v>266.39999999999998</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="3">
         <v>268.60000000000002</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="3">
         <v>270.2</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="3">
         <v>269.5</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="3">
         <v>269.10000000000002</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="3">
         <v>269.5</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="3">
         <v>269.7</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="3">
         <v>270.7</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="3">
         <v>271.60000000000002</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="3">
         <v>271.39999999999998</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="3">
         <v>270.60000000000002</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="3">
         <v>270.3</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="3">
         <v>269.8</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="2">
         <v>2004</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="3">
         <v>271.7</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="3">
         <v>273.2</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="3">
         <v>274.89999999999998</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="3">
         <v>275.8</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="3">
         <v>277.3</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="3">
         <v>278.2</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="3">
         <v>277.8</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="3">
         <v>277.89999999999998</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="3">
         <v>278.5</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="3">
         <v>280</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="3">
         <v>280.2</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="3">
         <v>279.10000000000002</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N34" s="3">
         <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="2">
         <v>2005</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="3">
         <v>279.60000000000002</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="3">
         <v>281.3</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="3">
         <v>283.5</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="3">
         <v>285.39999999999998</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="3">
         <v>285.2</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="3">
         <v>285.2</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="3">
         <v>286.5</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="3">
         <v>288</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="3">
         <v>291.5</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="3">
         <v>292.2</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="3">
         <v>289.8</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="3">
         <v>288.60000000000002</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="3">
         <v>286.39999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="2">
         <v>2006</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="3">
         <v>290.8</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="3">
         <v>291.39999999999998</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="3">
         <v>293.10000000000002</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="3">
         <v>295.5</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="3">
         <v>296.89999999999998</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="3">
         <v>297.60000000000002</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="3">
         <v>298.39999999999998</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="3">
         <v>299.10000000000002</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="3">
         <v>297.60000000000002</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="3">
         <v>296</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="3">
         <v>295.60000000000002</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="3">
         <v>296</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N36" s="3">
         <v>295.7</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37" s="2">
         <v>2007</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="3">
         <v>296.89999999999998</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="3">
         <v>298.5</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="3">
         <v>301.2</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="3">
         <v>303.10000000000002</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="3">
         <v>305</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="3">
         <v>305.60000000000002</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="3">
         <v>305.5</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="3">
         <v>304.89999999999998</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="3">
         <v>305.8</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="3">
         <v>306.39999999999998</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="3">
         <v>308.3</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="3">
         <v>308.10000000000002</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N37" s="3">
         <v>304.10000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="2">
         <v>2008</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="3">
         <v>309.60000000000002</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="3">
         <v>310.5</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="3">
         <v>313.2</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="3">
         <v>315.10000000000002</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="3">
         <v>317.7</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="3">
         <v>320.89999999999998</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="3">
         <v>322.60000000000002</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="3">
         <v>321.3</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="3">
         <v>320.89999999999998</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="3">
         <v>317.60000000000002</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="3">
         <v>311.60000000000002</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="3">
         <v>308.3</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N38" s="3">
         <v>315.8</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39" s="2">
         <v>2009</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="3">
         <v>309.7</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="3">
         <v>311.2</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="3">
         <v>312</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="3">
         <v>312.8</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="3">
         <v>313.7</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="3">
         <v>316.39999999999998</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="3">
         <v>315.8</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="3">
         <v>316.60000000000002</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="3">
         <v>316.8</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="3">
         <v>317.10000000000002</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="3">
         <v>317.3</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="3">
         <v>316.7</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N39" s="3">
         <v>314.7</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40" s="2">
         <v>2010</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="3">
         <v>317.8</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="3">
         <v>317.89999999999998</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="3">
         <v>319.2</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="3">
         <v>319.8</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="3">
         <v>320</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="3">
         <v>319.7</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="3">
         <v>319.8</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="3">
         <v>320.2</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="3">
         <v>320.39999999999998</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="3">
         <v>320.8</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="3">
         <v>320.89999999999998</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M40" s="3">
         <v>321.5</v>
       </c>
-      <c r="N40" s="7">
+      <c r="N40" s="3">
         <v>319.8</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="A41" s="2">
         <v>2011</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="3">
         <v>323</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="3">
         <v>324.60000000000002</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="3">
         <v>327.8</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="3">
         <v>329.9</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="3">
         <v>331.5</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="3">
         <v>331.1</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="3">
         <v>331.4</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="3">
         <v>332.3</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="3">
         <v>332.8</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="3">
         <v>332.2</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="3">
         <v>331.9</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M41" s="3">
         <v>331.1</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N41" s="3">
         <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="A42" s="2">
         <v>2012</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="3">
         <v>332.6</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="3">
         <v>334</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="3">
         <v>336.6</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="3">
         <v>337.6</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="3">
         <v>337.2</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="3">
         <v>336.7</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="3">
         <v>336.2</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="3">
         <v>338.1</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="3">
         <v>339.6</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="3">
         <v>339.5</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="3">
         <v>337.9</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="3">
         <v>337</v>
       </c>
-      <c r="N42" s="7">
+      <c r="N42" s="3">
         <v>336.9</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43" s="2">
         <v>2013</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="3">
         <v>338</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="3">
         <v>340.8</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="3">
         <v>341.7</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="3">
         <v>341.3</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="3">
         <v>341.9</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="3">
         <v>342.8</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="3">
         <v>342.9</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="3">
         <v>343.3</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="3">
         <v>343.8</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="3">
         <v>342.9</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="3">
         <v>342.2</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M43" s="3">
         <v>342.2</v>
       </c>
-      <c r="N43" s="7">
+      <c r="N43" s="3">
         <v>342</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="A44" s="2">
         <v>2014</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="3">
         <v>343.5</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="3">
         <v>344.8</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="3">
         <v>347</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="3">
         <v>348.2</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="3">
         <v>349.4</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="3">
         <v>350.1</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="3">
         <v>349.9</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="3">
         <v>349.3</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="3">
         <v>349.6</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="3">
         <v>348.7</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="3">
         <v>346.9</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M44" s="3">
         <v>344.9</v>
       </c>
-      <c r="N44" s="7">
+      <c r="N44" s="3">
         <v>347.7</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45" s="2">
         <v>2015</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="3">
         <v>343.4</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="3">
         <v>344.9</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="3">
         <v>346.9</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="3">
         <v>347.7</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="3">
         <v>349.4</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="3">
         <v>350.7</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="3">
         <v>350.7</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="3">
         <v>350.2</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="3">
         <v>349.7</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="3">
         <v>349.5</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="3">
         <v>348.8</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="3">
         <v>347.6</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N45" s="3">
         <v>348.3</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46" s="2">
         <v>2016</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="3">
         <v>348.2</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="3">
         <v>348.5</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="3">
         <v>350</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="3">
         <v>351.7</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="3">
         <v>353.1</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="3">
         <v>354.2</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="3">
         <v>353.7</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="3">
         <v>354</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="3">
         <v>354.8</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="3">
         <v>355.3</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="3">
         <v>354.7</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="3">
         <v>354.9</v>
       </c>
-      <c r="N46" s="7">
+      <c r="N46" s="3">
         <v>352.8</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47" s="2">
         <v>2017</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="3">
         <v>356.9</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="3">
         <v>358</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="3">
         <v>358.3</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="3">
         <v>359.4</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="3">
         <v>359.7</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="3">
         <v>360</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="3">
         <v>359.8</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="3">
         <v>360.9</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="3">
         <v>362.8</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="3">
         <v>362.5</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="3">
         <v>362.6</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M47" s="3">
         <v>362.3</v>
       </c>
-      <c r="N47" s="7">
+      <c r="N47" s="3">
         <v>360.3</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="A48" s="2">
         <v>2018</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="3">
         <v>364.3</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="3">
         <v>366</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="3">
         <v>366.7</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="3">
         <v>368.3</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="3">
         <v>369.8</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="3">
         <v>370.3</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="3">
         <v>370.4</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="3">
         <v>370.7</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="3">
         <v>371.1</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="3">
         <v>371.8</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="3">
         <v>370.6</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="3">
         <v>369.3</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N48" s="3">
         <v>369.1</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49" s="2">
         <v>2019</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="3">
         <v>370</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="3">
         <v>371.5</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="3">
         <v>373.6</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="3">
         <v>375.6</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="3">
         <v>376.4</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="3">
         <v>376.5</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="3">
         <v>377.2</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="3">
         <v>377.1</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="3">
         <v>377.5</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49" s="3">
         <v>378.4</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="3">
         <v>378.2</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M49" s="3">
         <v>377.8</v>
       </c>
-      <c r="N49" s="7">
+      <c r="N49" s="3">
         <v>375.8</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="A50" s="2">
         <v>2020</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="3">
         <v>379.2</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="3">
         <v>380.2</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="3">
         <v>379.5</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="3">
         <v>377.2</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="3">
         <v>377.2</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="3">
         <v>379.4</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="3">
         <v>381.3</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="3">
         <v>382.6</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="3">
         <v>383.1</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="3">
         <v>383.2</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="3">
         <v>382.9</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M50" s="3">
         <v>383.2</v>
       </c>
-      <c r="N50" s="7">
+      <c r="N50" s="3">
         <v>380.8</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="A51" s="2">
         <v>2021</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="3">
         <v>384.9</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="3">
         <v>387.1</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="3">
         <v>390</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="3">
         <v>393.2</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="3">
         <v>396.7</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="3">
         <v>400.5</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="3">
         <v>402.4</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="3">
         <v>403.1</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="3">
         <v>404.2</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K51" s="3">
         <v>407.6</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="3">
         <v>409.5</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M51" s="3">
         <v>410.8</v>
       </c>
-      <c r="N51" s="7">
+      <c r="N51" s="3">
         <v>399.2</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
+      <c r="A52" s="6">
         <v>2022</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="7">
         <v>414.3</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="7">
         <v>418.2</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="7">
         <v>423.9</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="7">
         <v>426.3</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="7">
         <v>431</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="7">
         <v>436.9</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="7">
         <v>436.8</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52" s="7">
         <v>436.7</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J52" s="7">
         <v>437.6</v>
       </c>
-      <c r="K52" s="11">
+      <c r="K52" s="7">
         <v>439.4</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L52" s="7">
         <v>439</v>
       </c>
-      <c r="M52" s="11">
+      <c r="M52" s="7">
         <v>437.6</v>
       </c>
-      <c r="N52" s="11">
+      <c r="N52" s="7">
         <v>431.5</v>
       </c>
     </row>
+    <row r="53" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B53" s="7">
+        <v>441.1</v>
+      </c>
+      <c r="C53" s="7">
+        <v>443.6</v>
+      </c>
+      <c r="D53" s="7">
+        <v>445</v>
+      </c>
+      <c r="E53" s="7">
+        <v>447.3</v>
+      </c>
+      <c r="F53" s="7">
+        <v>448.4</v>
+      </c>
+      <c r="G53" s="7">
+        <v>449.9</v>
+      </c>
+      <c r="H53" s="7">
+        <v>450.7</v>
+      </c>
+      <c r="I53" s="7">
+        <v>452.7</v>
+      </c>
+      <c r="J53" s="7">
+        <v>453.8</v>
+      </c>
+      <c r="K53" s="7">
+        <v>453.6</v>
+      </c>
+      <c r="L53" s="7">
+        <v>452.7</v>
+      </c>
+      <c r="M53" s="7">
+        <v>452.3</v>
+      </c>
+      <c r="N53" s="7">
+        <v>449.3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
